--- a/src/main/resources/template/excel/export/DBSheet.xlsx
+++ b/src/main/resources/template/excel/export/DBSheet.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订单模板!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">订单模板!$A$1:$I$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">订单模板!$A$1:$J$5</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -37,7 +37,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
+          <t>jx:area(lastCell="J</t>
         </r>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>I5</t>
+          <t>5</t>
         </r>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="J</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>I5</t>
+          <t>5</t>
         </r>
         <r>
           <rPr>
@@ -97,137 +97,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>${obj.largeNum}</t>
   </si>
   <si>
     <t>出货回单明细</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送规格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库回单单号：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>要货单号：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单入库单号:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货单号:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货机构:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货机构:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNoDB}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNoDA}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNoDI}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNoDO}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${targetBranchName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sourceBranchName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.distributionSpec}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.dealNum}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${validTimeStr}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>货号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送规格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库回单单号：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>要货单号：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单入库单号:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货单号:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货机构:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货机构:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核时间:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNoDB}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNoDA}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNoDI}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNoDO}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${targetBranchName}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sourceBranchName}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.skuName}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>${obj.skuCode}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.distributionSpec}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.dealNum}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${validTimeStr}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -240,7 +248,7 @@
     <numFmt numFmtId="178" formatCode="0.0000_);\(0.0000\)"/>
     <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,14 +272,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,13 +380,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,62 +437,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -763,158 +818,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>32</v>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.235416666666667" bottom="0.118055555555556" header="0.55000000000000004" footer="0.70763888888888904"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
